--- a/data/trans_dic/P36$nada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02337453258910851</v>
+        <v>0.02303357501668849</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03002868841996776</v>
+        <v>0.0303814576565243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0198197942029525</v>
+        <v>0.01835631972569822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02681515810426746</v>
+        <v>0.0258985062864454</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.028958639172862</v>
+        <v>0.02878628547662812</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02165312864862941</v>
+        <v>0.01980436747852116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02829114794511997</v>
+        <v>0.02776335204076796</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03473864389779017</v>
+        <v>0.0349443818231585</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02426813264704528</v>
+        <v>0.02360719949872485</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05663845388770031</v>
+        <v>0.05709612027639035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07793225949008546</v>
+        <v>0.076502686813316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05823750224668402</v>
+        <v>0.05680431950872527</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06350668249276385</v>
+        <v>0.06319496919989537</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06760344289488056</v>
+        <v>0.06902589930418322</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05735378615626298</v>
+        <v>0.05752037605587944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05165985528297756</v>
+        <v>0.05283518616456482</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06483828284178292</v>
+        <v>0.06363033266055304</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0491061751076495</v>
+        <v>0.0505854882474765</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005028441784816952</v>
+        <v>0.005169731442793095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03243185933650862</v>
+        <v>0.03298653610230459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02255688202010444</v>
+        <v>0.02208046876223884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009150060342199473</v>
+        <v>0.008722621987521939</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01944891099637451</v>
+        <v>0.01953693810496721</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00946247091240141</v>
+        <v>0.009995644314958408</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008858179106669473</v>
+        <v>0.00899920273995003</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02936379544862791</v>
+        <v>0.03056363563886205</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01937777761466445</v>
+        <v>0.01817678819906248</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02235391619941741</v>
+        <v>0.02215574232076576</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0718398432379081</v>
+        <v>0.07212330506469815</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05388900485192422</v>
+        <v>0.05259406570957895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0322608246252836</v>
+        <v>0.03413806038811701</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05333917682247516</v>
+        <v>0.05288043732245566</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03376501297484994</v>
+        <v>0.03256047515835957</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02277297888910872</v>
+        <v>0.02197762725657397</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05368146785246579</v>
+        <v>0.0555423701469229</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03818705454098333</v>
+        <v>0.03823996611732453</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007686517783505508</v>
+        <v>0.007579588868424855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009111460767698412</v>
+        <v>0.009282157082005993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008530762743156674</v>
+        <v>0.008991437782888656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00712128211386917</v>
+        <v>0.007164157819120984</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001504981399877173</v>
+        <v>0.001409871251261893</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00420422735388525</v>
+        <v>0.004137003880190897</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009415275694128592</v>
+        <v>0.009216738557154184</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006377859110682433</v>
+        <v>0.006702298750861603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008506147063037822</v>
+        <v>0.008337868719156342</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02667018556346443</v>
+        <v>0.02604712344786115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03169793783060764</v>
+        <v>0.03102480026804242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03204966180234077</v>
+        <v>0.0328976936776586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02681716182127387</v>
+        <v>0.02553681919114148</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0141540300895069</v>
+        <v>0.01398424172460996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0199152236557444</v>
+        <v>0.01945960097536237</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02383748106616732</v>
+        <v>0.02288565936413124</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01859341833306028</v>
+        <v>0.01897593910059365</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02204112628490737</v>
+        <v>0.02172801185136386</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01591729533632639</v>
+        <v>0.0170156247399482</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007019053711052554</v>
+        <v>0.006723396665597174</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008578659976691112</v>
+        <v>0.009635582083009353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005689716694580705</v>
+        <v>0.006114754221675608</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005005003358481949</v>
+        <v>0.005011483517227888</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0133657410364685</v>
+        <v>0.01324354493489688</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00681721695745003</v>
+        <v>0.007766635457691341</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005567048413781647</v>
+        <v>0.005723068318910059</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04660430963293447</v>
+        <v>0.0469252958371919</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02999038508055067</v>
+        <v>0.02804237431737103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03284505259438514</v>
+        <v>0.03332133999600942</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02707991458209368</v>
+        <v>0.0281998580723591</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02671417125715048</v>
+        <v>0.02658470557822822</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.009829751380445522</v>
+        <v>0.009577996852443689</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03158268240465186</v>
+        <v>0.03377022637276497</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02139199056680006</v>
+        <v>0.02293797380648178</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01832132592046864</v>
+        <v>0.01800349177589798</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009921541288408916</v>
+        <v>0.01050182088507805</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007377298683751648</v>
+        <v>0.007342042164885556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002141540407660666</v>
+        <v>0.002114251240776821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002512309315796627</v>
+        <v>0.002743286649379047</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007377663133691746</v>
+        <v>0.007073184987609548</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008704528406223268</v>
+        <v>0.0089423805160665</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.009624192814362465</v>
+        <v>0.009400318154121751</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002025767567767485</v>
+        <v>0.001930344671188212</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03984565778435863</v>
+        <v>0.04091817744191967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03634491780502377</v>
+        <v>0.03552140766246469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02946455133437363</v>
+        <v>0.02742102049548414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02469192072093499</v>
+        <v>0.02284642198122613</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03454392796504464</v>
+        <v>0.03243945705626199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01457571337190902</v>
+        <v>0.01105874757116919</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02657764284172092</v>
+        <v>0.02609256792664308</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.029098000467309</v>
+        <v>0.02811802766272447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01574302047965192</v>
+        <v>0.01574760902001117</v>
       </c>
     </row>
     <row r="19">
@@ -1220,10 +1220,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00288588904079608</v>
+        <v>0.002868593603839158</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003196108501993168</v>
+        <v>0.003199946061157698</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.00139974909269811</v>
+        <v>0.001409296983079782</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003142039851819352</v>
+        <v>0.003166723632954187</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02482157095825131</v>
+        <v>0.0246987559804435</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02987568533291476</v>
+        <v>0.03074661262968806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0161588457971902</v>
+        <v>0.0173201100269224</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01310695948489077</v>
+        <v>0.01449800422697679</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01760310124863105</v>
+        <v>0.0176965285731892</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01342338727867155</v>
+        <v>0.01701399811849459</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01394987799981273</v>
+        <v>0.01384017075062673</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01838234878228822</v>
+        <v>0.01950144192178546</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.009878477282511185</v>
+        <v>0.009150262445114216</v>
       </c>
     </row>
     <row r="22">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007982214344460684</v>
+        <v>0.008441812023104641</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.003762676998958559</v>
+        <v>0.00395943797038289</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -1356,22 +1356,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04993082288482416</v>
+        <v>0.04981928591159971</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.02233713668894854</v>
+        <v>0.01978039066126779</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01407733217763681</v>
+        <v>0.01584292144909936</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.02274626456141712</v>
+        <v>0.02406398316650025</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.006948913385458228</v>
+        <v>0.008596282524362482</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
     </row>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01608286133493024</v>
+        <v>0.01619647215377049</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02055983347526292</v>
+        <v>0.02043581399539614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01432638603048536</v>
+        <v>0.01454930022853858</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01178314648780806</v>
+        <v>0.01220967101594633</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01329493609107782</v>
+        <v>0.01309830717442398</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.006993772900879336</v>
+        <v>0.007013848961830132</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01506729803006513</v>
+        <v>0.01513667288978565</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0178755089066776</v>
+        <v>0.01799261463522229</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01146473830441433</v>
+        <v>0.01157951227457314</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02621956275492163</v>
+        <v>0.02580426748876458</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03263404772713859</v>
+        <v>0.03201846767671761</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0245757543463508</v>
+        <v>0.02434235876149093</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02073001770390494</v>
+        <v>0.01989433497439333</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02194557548608502</v>
+        <v>0.02217480766831566</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01398358279815832</v>
+        <v>0.01366190251182106</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02164596317607302</v>
+        <v>0.02196577478352129</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02553845944597211</v>
+        <v>0.02556693618212707</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01741665327616131</v>
+        <v>0.01762268595374336</v>
       </c>
     </row>
     <row r="28">
@@ -1713,31 +1713,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11528</v>
+        <v>11359</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13637</v>
+        <v>13798</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8314</v>
+        <v>7700</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12536</v>
+        <v>12107</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12401</v>
+        <v>12327</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8549</v>
+        <v>7819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27178</v>
+        <v>26671</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30653</v>
+        <v>30834</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19761</v>
+        <v>19223</v>
       </c>
     </row>
     <row r="7">
@@ -1748,31 +1748,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27932</v>
+        <v>28158</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35393</v>
+        <v>34743</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24428</v>
+        <v>23827</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29689</v>
+        <v>29543</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28950</v>
+        <v>29560</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22644</v>
+        <v>22710</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49627</v>
+        <v>50756</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57212</v>
+        <v>56146</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39986</v>
+        <v>41190</v>
       </c>
     </row>
     <row r="8">
@@ -1857,31 +1857,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3698</v>
+        <v>3802</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22253</v>
+        <v>22634</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13320</v>
+        <v>13038</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5704</v>
+        <v>5438</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11846</v>
+        <v>11900</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5333</v>
+        <v>5633</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12037</v>
+        <v>12229</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38033</v>
+        <v>39587</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22363</v>
+        <v>20977</v>
       </c>
     </row>
     <row r="11">
@@ -1892,31 +1892,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16441</v>
+        <v>16295</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49293</v>
+        <v>49487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31821</v>
+        <v>31057</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20112</v>
+        <v>21282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32489</v>
+        <v>32209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19028</v>
+        <v>18349</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30946</v>
+        <v>29866</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69531</v>
+        <v>71941</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44069</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="12">
@@ -2001,31 +2001,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4879</v>
+        <v>4811</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6187</v>
+        <v>6303</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5708</v>
+        <v>6016</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4912</v>
+        <v>4941</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1067</v>
+        <v>999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2781</v>
+        <v>2736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12471</v>
+        <v>12208</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8852</v>
+        <v>9302</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11317</v>
+        <v>11093</v>
       </c>
     </row>
     <row r="15">
@@ -2036,31 +2036,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16929</v>
+        <v>16534</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21524</v>
+        <v>21067</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21444</v>
+        <v>22012</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18497</v>
+        <v>17614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10034</v>
+        <v>9914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13172</v>
+        <v>12870</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>31573</v>
+        <v>30312</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25806</v>
+        <v>26337</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29325</v>
+        <v>28909</v>
       </c>
     </row>
     <row r="16">
@@ -2145,31 +2145,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8233</v>
+        <v>8801</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4307</v>
+        <v>4125</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5523</v>
+        <v>6204</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2923</v>
+        <v>3141</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13779</v>
+        <v>13653</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8384</v>
+        <v>9551</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7192</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="19">
@@ -2180,31 +2180,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24104</v>
+        <v>24271</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18401</v>
+        <v>17206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21148</v>
+        <v>21454</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13911</v>
+        <v>14486</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16461</v>
+        <v>16381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6369</v>
+        <v>6206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32559</v>
+        <v>34814</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26307</v>
+        <v>28209</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23668</v>
+        <v>23257</v>
       </c>
     </row>
     <row r="20">
@@ -2289,31 +2289,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3837</v>
+        <v>4061</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3168</v>
+        <v>3153</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1015</v>
+        <v>1108</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3296</v>
+        <v>3160</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6883</v>
+        <v>7071</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8433</v>
+        <v>8237</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1975</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="23">
@@ -2324,31 +2324,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15409</v>
+        <v>15823</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15608</v>
+        <v>15254</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14082</v>
+        <v>13105</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9975</v>
+        <v>9230</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15433</v>
+        <v>14493</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7242</v>
+        <v>5495</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21015</v>
+        <v>20631</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25496</v>
+        <v>24637</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15346</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="24">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2086</v>
+        <v>2102</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2468,31 +2468,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7262</v>
+        <v>7226</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9255</v>
+        <v>9525</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5402</v>
+        <v>5791</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4495</v>
+        <v>4972</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6231</v>
+        <v>6265</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5071</v>
+        <v>6427</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8865</v>
+        <v>8796</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12202</v>
+        <v>12945</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7034</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="28">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1675</v>
+        <v>1772</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>2046</v>
+        <v>2153</v>
       </c>
       <c r="J30" s="6" t="n">
         <v>0</v>
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10480</v>
+        <v>10456</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>7459</v>
+        <v>6605</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5476</v>
+        <v>6163</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>12369</v>
+        <v>13086</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>4432</v>
+        <v>5482</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
     </row>
@@ -2705,31 +2705,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>52588</v>
+        <v>52959</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>70333</v>
+        <v>69908</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>48572</v>
+        <v>49328</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>39770</v>
+        <v>41210</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>47226</v>
+        <v>46528</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>24767</v>
+        <v>24838</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>100122</v>
+        <v>100583</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>124647</v>
+        <v>125464</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>79470</v>
+        <v>80265</v>
       </c>
     </row>
     <row r="35">
@@ -2740,31 +2740,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>85733</v>
+        <v>84375</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>111637</v>
+        <v>109531</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83321</v>
+        <v>82530</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>69967</v>
+        <v>67147</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>77955</v>
+        <v>78769</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>49520</v>
+        <v>48381</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>143837</v>
+        <v>145962</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>178081</v>
+        <v>178280</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>120726</v>
+        <v>122155</v>
       </c>
     </row>
     <row r="36">
